--- a/translation_stats/gpt-3.5_codenet_compileReport_from_python_to_java_misleading_test.xlsx
+++ b/translation_stats/gpt-3.5_codenet_compileReport_from_python_to_java_misleading_test.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>p03533.java</t>
+          <t>p01813.java</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>p00088.java</t>
+          <t>p02842.java</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>p00050.java</t>
+          <t>p02553.java</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>p02694.java</t>
+          <t>p03884.java</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>p03896.java</t>
+          <t>p03629.java</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>p02738.java</t>
+          <t>p03097.java</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>p03836.java</t>
+          <t>p00007.java</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>p01467.java</t>
+          <t>p03766.java</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>p03624.java</t>
+          <t>p01452.java</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>p02555.java</t>
+          <t>p03234.java</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>p02636.java</t>
+          <t>p03624.java</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>p02566.java</t>
+          <t>p03088.java</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>p03234.java</t>
+          <t>p02223.java</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>p01872.java</t>
+          <t>p00363.java</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>p02065.java</t>
+          <t>p03913.java</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>p00363.java</t>
+          <t>p02932.java</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>p03097.java</t>
+          <t>p03622.java</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>p03913.java</t>
+          <t>p02992.java</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>p01668.java</t>
+          <t>p02541.java</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>p03884.java</t>
+          <t>p00345.java</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>p01542.java</t>
+          <t>p03066.java</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>p04038.java</t>
+          <t>p01542.java</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>p02963.java</t>
+          <t>p03646.java</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>p03088.java</t>
+          <t>p02963.java</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>p01863.java</t>
+          <t>p01467.java</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>p03933.java</t>
+          <t>p02674.java</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>p03737.java</t>
+          <t>p03836.java</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>p01452.java</t>
+          <t>p02624.java</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>p03698.java</t>
+          <t>p01040.java</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>p02826.java</t>
+          <t>p02555.java</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>p04004.java</t>
+          <t>p02566.java</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>p02266.java</t>
+          <t>p02636.java</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>p02862.java</t>
+          <t>p00050.java</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>p00007.java</t>
+          <t>p02738.java</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>p04040.java</t>
+          <t>p02903.java</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>p03989.java</t>
+          <t>p02266.java</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>p02223.java</t>
+          <t>p03737.java</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>p02790.java</t>
+          <t>p03291.java</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>p02553.java</t>
+          <t>p04040.java</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>p02652.java</t>
+          <t>p02254.java</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>p02992.java</t>
+          <t>p00088.java</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>p02932.java</t>
+          <t>p03533.java</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>p02833.java</t>
+          <t>p03989.java</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>p03704.java</t>
+          <t>p00950.java</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>p02842.java</t>
+          <t>p02065.java</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>p03066.java</t>
+          <t>p02862.java</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>p00345.java</t>
+          <t>p03505.java</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>p03505.java</t>
+          <t>p02652.java</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>p01813.java</t>
+          <t>p02826.java</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>p02541.java</t>
+          <t>p02694.java</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>p03622.java</t>
+          <t>p03698.java</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>p02674.java</t>
+          <t>p02833.java</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>p03923.java</t>
+          <t>p00509.java</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>p02254.java</t>
+          <t>p04038.java</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>p00950.java</t>
+          <t>p02685.java</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>p02903.java</t>
+          <t>p01863.java</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>p03392.java</t>
+          <t>p03923.java</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>p03629.java</t>
+          <t>p03704.java</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>p02624.java</t>
+          <t>p03933.java</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>p03291.java</t>
+          <t>p03896.java</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>p00509.java</t>
+          <t>p02654.java</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>p03646.java</t>
+          <t>p01668.java</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>p01040.java</t>
+          <t>p03392.java</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>p02654.java</t>
+          <t>p04004.java</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>p03766.java</t>
+          <t>p01872.java</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>p02685.java</t>
+          <t>p02790.java</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>p02720.java</t>
+          <t>p03362.java</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>p01979.java</t>
+          <t>p02062.java</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>p03672.java</t>
+          <t>p02769.java</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>p03362.java</t>
+          <t>p03828.java</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>p02939.java</t>
+          <t>p02720.java</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>p02342.java</t>
+          <t>p01781.java</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>p03828.java</t>
+          <t>p03331.java</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>p03874.java</t>
+          <t>p02342.java</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>p03331.java</t>
+          <t>p01637.java</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>p02004.java</t>
+          <t>p03480.java</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>p01783.java</t>
+          <t>p03560.java</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>p02960.java</t>
+          <t>p01979.java</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>p01781.java</t>
+          <t>p02939.java</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>p03952.java</t>
+          <t>p03672.java</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>p03560.java</t>
+          <t>p02965.java</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>p02100.java</t>
+          <t>p02334.java</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>p01637.java</t>
+          <t>p02004.java</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>p03832.java</t>
+          <t>p00899.java</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>p02965.java</t>
+          <t>p02974.java</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>p00899.java</t>
+          <t>p02100.java</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>p02334.java</t>
+          <t>p01783.java</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>p02062.java</t>
+          <t>p03874.java</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>p03480.java</t>
+          <t>p02960.java</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>p02974.java</t>
+          <t>p03952.java</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>p02769.java</t>
+          <t>p03832.java</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>p01641.java</t>
+          <t>p03945.java</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>p02668.java</t>
+          <t>p03473.java</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>p03924.java</t>
+          <t>p00017.java</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>p01829.java</t>
+          <t>p03105.java</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>p03267.java</t>
+          <t>p03145.java</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>p03025.java</t>
+          <t>p03799.java</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>p01883.java</t>
+          <t>p00369.java</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>p03748.java</t>
+          <t>p03086.java</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>p03429.java</t>
+          <t>p03315.java</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>p03332.java</t>
+          <t>p00340.java</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>p02111.java</t>
+          <t>p03418.java</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>p02882.java</t>
+          <t>p03417.java</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>p03257.java</t>
+          <t>p03844.java</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>p03666.java</t>
+          <t>p00310.java</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>p04032.java</t>
+          <t>p03759.java</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>p03375.java</t>
+          <t>p03893.java</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>p03648.java</t>
+          <t>p03242.java</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>p03939.java</t>
+          <t>p03666.java</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>p02997.java</t>
+          <t>p03592.java</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>p03324.java</t>
+          <t>p01821.java</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>p01432.java</t>
+          <t>p02954.java</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>p03849.java</t>
+          <t>p02621.java</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>p02731.java</t>
+          <t>p00979.java</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>p00280.java</t>
+          <t>p02256.java</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>p03154.java</t>
+          <t>p03551.java</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>p03920.java</t>
+          <t>p02786.java</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>p02697.java</t>
+          <t>p02927.java</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>p02817.java</t>
+          <t>p02712.java</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>p01447.java</t>
+          <t>p04018.java</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>p03351.java</t>
+          <t>p03047.java</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>p03581.java</t>
+          <t>p03416.java</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>p03789.java</t>
+          <t>p03389.java</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>p00575.java</t>
+          <t>p03284.java</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>p00094.java</t>
+          <t>p03591.java</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>p01741.java</t>
+          <t>p03847.java</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>p02450.java</t>
+          <t>p02843.java</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>p00379.java</t>
+          <t>p03697.java</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>p02391.java</t>
+          <t>p03387.java</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>p02677.java</t>
+          <t>p03035.java</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>p03010.java</t>
+          <t>p03029.java</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>p02977.java</t>
+          <t>p02667.java</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>p03431.java</t>
+          <t>p03679.java</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>p02635.java</t>
+          <t>p03359.java</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>p03582.java</t>
+          <t>p03431.java</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>p02012.java</t>
+          <t>p02847.java</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>p02768.java</t>
+          <t>p02424.java</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>p03594.java</t>
+          <t>p04043.java</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>p02380.java</t>
+          <t>p01721.java</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>p03471.java</t>
+          <t>p03149.java</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>p02337.java</t>
+          <t>p03558.java</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>p02653.java</t>
+          <t>p03524.java</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>p03548.java</t>
+          <t>p00333.java</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>p03847.java</t>
+          <t>p02664.java</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>p03394.java</t>
+          <t>p03250.java</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>p03001.java</t>
+          <t>p02140.java</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>p02873.java</t>
+          <t>p00290.java</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>p04026.java</t>
+          <t>p01521.java</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>p03421.java</t>
+          <t>p03211.java</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>p03224.java</t>
+          <t>p03265.java</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>p03935.java</t>
+          <t>p03135.java</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>p03402.java</t>
+          <t>p03332.java</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>p02625.java</t>
+          <t>p03222.java</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>p02897.java</t>
+          <t>p04001.java</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>p02825.java</t>
+          <t>p02952.java</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>p03523.java</t>
+          <t>p03888.java</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>p02946.java</t>
+          <t>p03867.java</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>p02878.java</t>
+          <t>p03838.java</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>p02771.java</t>
+          <t>p03854.java</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>p02690.java</t>
+          <t>p03292.java</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>p00993.java</t>
+          <t>p02206.java</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>p03230.java</t>
+          <t>p03582.java</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>p02664.java</t>
+          <t>p03323.java</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>p03404.java</t>
+          <t>p03493.java</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>p02705.java</t>
+          <t>p00322.java</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>p01593.java</t>
+          <t>p02054.java</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>p02400.java</t>
+          <t>p02596.java</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>p02970.java</t>
+          <t>p03454.java</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>p01610.java</t>
+          <t>p02831.java</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>p02273.java</t>
+          <t>p03965.java</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>p00411.java</t>
+          <t>p03386.java</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>p02379.java</t>
+          <t>p03106.java</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>p03888.java</t>
+          <t>p00404.java</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>p01995.java</t>
+          <t>p02880.java</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>p03947.java</t>
+          <t>p00939.java</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>p02399.java</t>
+          <t>p02897.java</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>p03945.java</t>
+          <t>p00991.java</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>p03260.java</t>
+          <t>p03609.java</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>p03689.java</t>
+          <t>p03719.java</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>p02930.java</t>
+          <t>p02393.java</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>p03270.java</t>
+          <t>p04046.java</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>p00957.java</t>
+          <t>p02711.java</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>p03636.java</t>
+          <t>p00332.java</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>p02766.java</t>
+          <t>p03623.java</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>p02423.java</t>
+          <t>p03748.java</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>p02797.java</t>
+          <t>p01852.java</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>p03043.java</t>
+          <t>p03050.java</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>p03304.java</t>
+          <t>p03681.java</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>p01078.java</t>
+          <t>p03324.java</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>p01721.java</t>
+          <t>p01601.java</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>p03963.java</t>
+          <t>p01489.java</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>p03016.java</t>
+          <t>p02263.java</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>p03318.java</t>
+          <t>p03543.java</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>p03437.java</t>
+          <t>p03371.java</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>p03135.java</t>
+          <t>p02398.java</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>p01997.java</t>
+          <t>p02765.java</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>p03334.java</t>
+          <t>p03914.java</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5421,12 +5421,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>p03213.java</t>
+          <t>p03777.java</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Infinite Loop</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5446,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>p02994.java</t>
+          <t>p02534.java</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5471,12 +5471,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>p01531.java</t>
+          <t>p01772.java</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5496,12 +5496,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>p03316.java</t>
+          <t>p02755.java</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5521,12 +5521,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>p00017.java</t>
+          <t>p03194.java</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>p02924.java</t>
+          <t>p03188.java</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5571,12 +5571,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>p03359.java</t>
+          <t>p00312.java</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5596,12 +5596,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>p00979.java</t>
+          <t>p03109.java</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5621,12 +5621,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>p02700.java</t>
+          <t>p03561.java</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5646,12 +5646,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>p03456.java</t>
+          <t>p03962.java</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5671,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>p02696.java</t>
+          <t>p02550.java</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5696,12 +5696,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>p03852.java</t>
+          <t>p01531.java</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5721,12 +5721,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>p03210.java</t>
+          <t>p02865.java</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>p02477.java</t>
+          <t>p03556.java</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5771,12 +5771,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>p01722.java</t>
+          <t>p02945.java</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5796,12 +5796,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>p03589.java</t>
+          <t>p01810.java</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5821,12 +5821,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>p03284.java</t>
+          <t>p02823.java</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5846,12 +5846,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>p02993.java</t>
+          <t>p03212.java</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>p03889.java</t>
+          <t>p03544.java</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5896,12 +5896,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>p03986.java</t>
+          <t>p03957.java</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>p03587.java</t>
+          <t>p03010.java</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>p03248.java</t>
+          <t>p01432.java</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5971,12 +5971,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>p03200.java</t>
+          <t>p03789.java</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -5996,12 +5996,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>p03352.java</t>
+          <t>p02977.java</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6021,12 +6021,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>p00400.java</t>
+          <t>p03196.java</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6046,12 +6046,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>p03867.java</t>
+          <t>p02063.java</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6071,12 +6071,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>p03018.java</t>
+          <t>p02391.java</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>p03803.java</t>
+          <t>p02423.java</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6121,12 +6121,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>p02711.java</t>
+          <t>p00993.java</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6146,12 +6146,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>p03485.java</t>
+          <t>p02981.java</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6171,12 +6171,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>p03455.java</t>
+          <t>p03024.java</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6196,12 +6196,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>p04043.java</t>
+          <t>p02751.java</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6221,12 +6221,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>p00332.java</t>
+          <t>p01995.java</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6246,12 +6246,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>p03893.java</t>
+          <t>p03483.java</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>p03473.java</t>
+          <t>p02873.java</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6296,12 +6296,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>p00111.java</t>
+          <t>p03897.java</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6321,12 +6321,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>p03549.java</t>
+          <t>p01641.java</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6346,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>p02032.java</t>
+          <t>p02731.java</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6371,12 +6371,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>p03059.java</t>
+          <t>p02723.java</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6396,12 +6396,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>p03943.java</t>
+          <t>p03241.java</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6421,12 +6421,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>p02831.java</t>
+          <t>p02909.java</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6446,12 +6446,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>p03073.java</t>
+          <t>p03206.java</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6471,12 +6471,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>p02608.java</t>
+          <t>p02584.java</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6496,12 +6496,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>p03820.java</t>
+          <t>p02137.java</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6521,12 +6521,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>p00291.java</t>
+          <t>p02417.java</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6546,12 +6546,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>p03623.java</t>
+          <t>p02629.java</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6571,12 +6571,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>p00330.java</t>
+          <t>p02470.java</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>p02468.java</t>
+          <t>p02811.java</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6621,12 +6621,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>p03469.java</t>
+          <t>p02639.java</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6646,12 +6646,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>p03269.java</t>
+          <t>p03125.java</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6671,12 +6671,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>p03398.java</t>
+          <t>p03320.java</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6696,12 +6696,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>p02840.java</t>
+          <t>p01447.java</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>p04041.java</t>
+          <t>p02554.java</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6746,12 +6746,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>p02256.java</t>
+          <t>p02713.java</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>p03610.java</t>
+          <t>p03689.java</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6796,12 +6796,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>p02747.java</t>
+          <t>p03334.java</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6821,12 +6821,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>p03149.java</t>
+          <t>p02582.java</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6846,12 +6846,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>p00399.java</t>
+          <t>p03939.java</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>p02116.java</t>
+          <t>p02995.java</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6896,12 +6896,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>p03775.java</t>
+          <t>p02012.java</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6921,12 +6921,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>p03323.java</t>
+          <t>p03016.java</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6946,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>p02233.java</t>
+          <t>p02170.java</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6971,12 +6971,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>p01636.java</t>
+          <t>p01945.java</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -6996,12 +6996,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>p02476.java</t>
+          <t>p01811.java</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7021,12 +7021,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>p03131.java</t>
+          <t>p03419.java</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7046,12 +7046,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>p03834.java</t>
+          <t>p02885.java</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7071,12 +7071,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>p03192.java</t>
+          <t>p01473.java</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7096,12 +7096,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>p03929.java</t>
+          <t>p02836.java</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7121,12 +7121,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>p02016.java</t>
+          <t>p02660.java</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7146,12 +7146,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>p03543.java</t>
+          <t>p03826.java</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>p02398.java</t>
+          <t>p03547.java</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7196,12 +7196,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>p03534.java</t>
+          <t>p03407.java</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7221,12 +7221,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>p03817.java</t>
+          <t>p03778.java</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7246,12 +7246,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>p04048.java</t>
+          <t>p03043.java</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7271,12 +7271,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>p03965.java</t>
+          <t>p02477.java</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7296,12 +7296,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>p03643.java</t>
+          <t>p02668.java</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>p00310.java</t>
+          <t>p03835.java</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7346,12 +7346,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>p03729.java</t>
+          <t>p02879.java</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7371,12 +7371,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>p03479.java</t>
+          <t>p03385.java</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7396,12 +7396,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>p03711.java</t>
+          <t>p02969.java</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7421,12 +7421,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>p03830.java</t>
+          <t>p03610.java</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7446,12 +7446,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>p02406.java</t>
+          <t>p00411.java</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7471,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>p03501.java</t>
+          <t>p01725.java</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7496,12 +7496,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>p03999.java</t>
+          <t>p03705.java</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7521,12 +7521,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>p02722.java</t>
+          <t>p03318.java</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7546,12 +7546,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>p02836.java</t>
+          <t>p03740.java</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7571,12 +7571,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>p02744.java</t>
+          <t>p02406.java</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7596,12 +7596,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>p03125.java</t>
+          <t>p01076.java</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7621,12 +7621,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>p02470.java</t>
+          <t>p01610.java</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7646,12 +7646,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>p02987.java</t>
+          <t>p00400.java</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7671,12 +7671,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>p03865.java</t>
+          <t>p01998.java</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7696,12 +7696,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>p03778.java</t>
+          <t>p00388.java</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7721,12 +7721,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>p03657.java</t>
+          <t>p03248.java</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7746,12 +7746,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>p02995.java</t>
+          <t>p03393.java</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>p03328.java</t>
+          <t>p03501.java</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>p01521.java</t>
+          <t>p03286.java</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7821,12 +7821,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>p03307.java</t>
+          <t>p00435.java</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7846,12 +7846,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>p02723.java</t>
+          <t>p03671.java</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7871,12 +7871,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>p02332.java</t>
+          <t>p02392.java</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7896,12 +7896,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>p02858.java</t>
+          <t>p02339.java</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7921,12 +7921,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>p03139.java</t>
+          <t>p02938.java</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7946,12 +7946,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>p03759.java</t>
+          <t>p03345.java</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7971,12 +7971,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>p02938.java</t>
+          <t>p00341.java</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -7996,12 +7996,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>p03071.java</t>
+          <t>p01486.java</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8021,12 +8021,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>p01772.java</t>
+          <t>p01078.java</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8046,12 +8046,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>p02765.java</t>
+          <t>p02979.java</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8071,12 +8071,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>p03418.java</t>
+          <t>p03581.java</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8096,12 +8096,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>p02910.java</t>
+          <t>p02792.java</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8121,12 +8121,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>p03914.java</t>
+          <t>p01989.java</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8146,12 +8146,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>p03547.java</t>
+          <t>p03910.java</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8171,12 +8171,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>p03483.java</t>
+          <t>p02657.java</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8196,12 +8196,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>p02818.java</t>
+          <t>p01938.java</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8221,12 +8221,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>p02811.java</t>
+          <t>p01722.java</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8246,12 +8246,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>p03286.java</t>
+          <t>p02233.java</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8271,12 +8271,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>p02392.java</t>
+          <t>p02818.java</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8296,12 +8296,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>p00301.java</t>
+          <t>p02600.java</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8321,12 +8321,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>p01811.java</t>
+          <t>p03192.java</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8346,12 +8346,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>p03039.java</t>
+          <t>p01892.java</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8371,12 +8371,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>p03781.java</t>
+          <t>p00376.java</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8396,12 +8396,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>p03992.java</t>
+          <t>p03523.java</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8421,12 +8421,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>p02629.java</t>
+          <t>p02474.java</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8446,12 +8446,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>p03206.java</t>
+          <t>p01869.java</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8471,12 +8471,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>p00378.java</t>
+          <t>p02019.java</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8496,12 +8496,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>p03481.java</t>
+          <t>p03775.java</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8521,12 +8521,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>p00991.java</t>
+          <t>p01916.java</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8546,12 +8546,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>p02594.java</t>
+          <t>p03304.java</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8571,12 +8571,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>p03679.java</t>
+          <t>p02742.java</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8596,12 +8596,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>p00006.java</t>
+          <t>p03036.java</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8621,12 +8621,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>p02954.java</t>
+          <t>p03073.java</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8646,12 +8646,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>p03970.java</t>
+          <t>p02606.java</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8671,12 +8671,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>p03238.java</t>
+          <t>p03589.java</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8696,12 +8696,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>p01945.java</t>
+          <t>p03648.java</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8721,12 +8721,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>p01076.java</t>
+          <t>p04012.java</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8746,12 +8746,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>p03863.java</t>
+          <t>p02797.java</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8771,12 +8771,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>p03048.java</t>
+          <t>p02783.java</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8796,12 +8796,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>p03106.java</t>
+          <t>p03023.java</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>p02251.java</t>
+          <t>p03856.java</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8846,12 +8846,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>p02584.java</t>
+          <t>p03887.java</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8871,12 +8871,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>p03090.java</t>
+          <t>p03632.java</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>p02875.java</t>
+          <t>p02882.java</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8921,12 +8921,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>p02198.java</t>
+          <t>p03840.java</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8946,12 +8946,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>p02415.java</t>
+          <t>p02548.java</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8971,12 +8971,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>p03272.java</t>
+          <t>p02715.java</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>p03024.java</t>
+          <t>p02468.java</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9021,12 +9021,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>p03266.java</t>
+          <t>p03463.java</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9046,12 +9046,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>p02417.java</t>
+          <t>p00094.java</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9071,12 +9071,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>p03268.java</t>
+          <t>p03797.java</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9096,12 +9096,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>p03644.java</t>
+          <t>p00280.java</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9121,12 +9121,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>p03371.java</t>
+          <t>p03219.java</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9146,12 +9146,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>p01892.java</t>
+          <t>p03048.java</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9171,12 +9171,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>p00354.java</t>
+          <t>p03795.java</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9196,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>p03227.java</t>
+          <t>p03618.java</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9221,12 +9221,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>p01810.java</t>
+          <t>p02471.java</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9246,12 +9246,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>p03129.java</t>
+          <t>p04048.java</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9271,12 +9271,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>p03567.java</t>
+          <t>p03860.java</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9296,12 +9296,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>p03005.java</t>
+          <t>p02724.java</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9321,12 +9321,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>p02754.java</t>
+          <t>p00356.java</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9346,12 +9346,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>p00331.java</t>
+          <t>p03268.java</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9371,12 +9371,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>p02835.java</t>
+          <t>p01883.java</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9396,12 +9396,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>p02534.java</t>
+          <t>p02677.java</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9421,12 +9421,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>p01388.java</t>
+          <t>p01050.java</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9446,12 +9446,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>p01809.java</t>
+          <t>p02726.java</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9471,12 +9471,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>p02430.java</t>
+          <t>p03270.java</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9496,12 +9496,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>p02742.java</t>
+          <t>p02116.java</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9521,12 +9521,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>p03570.java</t>
+          <t>p03131.java</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9546,12 +9546,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>p02881.java</t>
+          <t>p03889.java</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9571,12 +9571,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>p02639.java</t>
+          <t>p02399.java</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9596,12 +9596,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>p03222.java</t>
+          <t>p03834.java</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9621,12 +9621,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>p02550.java</t>
+          <t>p02125.java</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9646,12 +9646,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>p02775.java</t>
+          <t>p03924.java</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9671,12 +9671,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>p01555.java</t>
+          <t>p03139.java</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9696,12 +9696,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>p00340.java</t>
+          <t>p03635.java</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9721,12 +9721,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>p02712.java</t>
+          <t>p03849.java</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9746,12 +9746,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>p03285.java</t>
+          <t>p03337.java</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9771,12 +9771,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>p03844.java</t>
+          <t>p00019.java</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9796,12 +9796,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>p02730.java</t>
+          <t>p03260.java</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9821,12 +9821,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>p02859.java</t>
+          <t>p02922.java</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9846,12 +9846,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>p02206.java</t>
+          <t>p00401.java</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>p03618.java</t>
+          <t>p03683.java</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9896,12 +9896,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>p02212.java</t>
+          <t>p00252.java</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9921,12 +9921,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>p03705.java</t>
+          <t>p04029.java</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9946,12 +9946,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>p03241.java</t>
+          <t>p02754.java</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9971,12 +9971,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>p03035.java</t>
+          <t>p02980.java</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -9996,12 +9996,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>p02138.java</t>
+          <t>p03471.java</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10021,12 +10021,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>p03253.java</t>
+          <t>p03693.java</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10046,12 +10046,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>p04033.java</t>
+          <t>p01491.java</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10071,12 +10071,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>p02338.java</t>
+          <t>p00399.java</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10096,12 +10096,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>p02900.java</t>
+          <t>p01741.java</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10121,12 +10121,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>p03683.java</t>
+          <t>p00084.java</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10146,12 +10146,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>p02782.java</t>
+          <t>p02546.java</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10171,12 +10171,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>p00352.java</t>
+          <t>p02017.java</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>p03478.java</t>
+          <t>p03394.java</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10221,12 +10221,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>p03280.java</t>
+          <t>p00352.java</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10246,12 +10246,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>p02969.java</t>
+          <t>p03146.java</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10271,12 +10271,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>p02554.java</t>
+          <t>p00393.java</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10296,12 +10296,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>p03386.java</t>
+          <t>p02150.java</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10321,12 +10321,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>p02751.java</t>
+          <t>p01388.java</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10346,12 +10346,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>p02548.java</t>
+          <t>p03150.java</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10371,12 +10371,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>p02621.java</t>
+          <t>p03328.java</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10396,12 +10396,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>p02467.java</t>
+          <t>p03545.java</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10421,12 +10421,12 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>p02659.java</t>
+          <t>p02032.java</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10446,12 +10446,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>p04030.java</t>
+          <t>p03373.java</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10471,12 +10471,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>p00494.java</t>
+          <t>p03134.java</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10496,12 +10496,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>p01479.java</t>
+          <t>p02970.java</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10521,12 +10521,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>p03023.java</t>
+          <t>p04030.java</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10546,12 +10546,12 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>p02783.java</t>
+          <t>p02400.java</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10571,12 +10571,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>p02801.java</t>
+          <t>p03186.java</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10596,12 +10596,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>p00312.java</t>
+          <t>p02999.java</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10621,12 +10621,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>p02853.java</t>
+          <t>p02576.java</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10646,12 +10646,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>p03569.java</t>
+          <t>p02759.java</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10671,12 +10671,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>p02141.java</t>
+          <t>p03005.java</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10696,12 +10696,12 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>p02150.java</t>
+          <t>p03599.java</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10721,12 +10721,12 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>p02331.java</t>
+          <t>p02415.java</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10746,12 +10746,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>p02169.java</t>
+          <t>p00330.java</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10771,12 +10771,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>p00393.java</t>
+          <t>p02858.java</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10796,12 +10796,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>p02606.java</t>
+          <t>p03009.java</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10821,12 +10821,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>p03687.java</t>
+          <t>p02024.java</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10846,12 +10846,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>p03697.java</t>
+          <t>p04005.java</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10871,12 +10871,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>p01852.java</t>
+          <t>p03548.java</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10896,12 +10896,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>p03264.java</t>
+          <t>p02338.java</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>p03365.java</t>
+          <t>p03210.java</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10946,12 +10946,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>p02667.java</t>
+          <t>p03569.java</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10971,12 +10971,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>p02582.java</t>
+          <t>p04041.java</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -10996,12 +10996,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>p03385.java</t>
+          <t>p03601.java</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11021,12 +11021,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>p02576.java</t>
+          <t>p02915.java</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11046,12 +11046,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>p01916.java</t>
+          <t>p03865.java</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11071,12 +11071,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>p02979.java</t>
+          <t>p03266.java</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11096,12 +11096,12 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>p03524.java</t>
+          <t>p03657.java</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11121,12 +11121,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>p02263.java</t>
+          <t>p00018.java</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11146,12 +11146,12 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>p03228.java</t>
+          <t>p02473.java</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11171,12 +11171,12 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>p03345.java</t>
+          <t>p03814.java</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11196,12 +11196,12 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>p03592.java</t>
+          <t>p03549.java</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11221,12 +11221,12 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>p03681.java</t>
+          <t>p02467.java</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11246,12 +11246,12 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>p02719.java</t>
+          <t>p02708.java</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11271,12 +11271,12 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>p03631.java</t>
+          <t>p02900.java</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11296,12 +11296,12 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>p02552.java</t>
+          <t>p01425.java</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11321,12 +11321,12 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>p03605.java</t>
+          <t>p03817.java</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11346,12 +11346,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>p02819.java</t>
+          <t>p02439.java</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11371,12 +11371,12 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>p00369.java</t>
+          <t>p03042.java</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>p00018.java</t>
+          <t>p03253.java</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11421,12 +11421,12 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>p03416.java</t>
+          <t>p03272.java</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11446,12 +11446,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>p03632.java</t>
+          <t>p02653.java</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11471,12 +11471,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>p02149.java</t>
+          <t>p03083.java</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11496,12 +11496,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>p03609.java</t>
+          <t>p02659.java</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11521,12 +11521,12 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>p03967.java</t>
+          <t>p02699.java</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11546,12 +11546,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>p01938.java</t>
+          <t>p02744.java</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11571,12 +11571,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>p01687.java</t>
+          <t>p02390.java</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11596,12 +11596,12 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>p03482.java</t>
+          <t>p03967.java</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11621,12 +11621,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>p02162.java</t>
+          <t>p02427.java</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11646,12 +11646,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>p03085.java</t>
+          <t>p02697.java</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11671,12 +11671,12 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>p00404.java</t>
+          <t>p01555.java</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11696,12 +11696,12 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>p04018.java</t>
+          <t>p02690.java</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11721,12 +11721,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>p01869.java</t>
+          <t>p02993.java</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11746,12 +11746,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>p02439.java</t>
+          <t>p03067.java</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11771,12 +11771,12 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>p03957.java</t>
+          <t>p02819.java</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11796,12 +11796,12 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>p03693.java</t>
+          <t>p02149.java</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11821,12 +11821,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>p03860.java</t>
+          <t>p02594.java</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11846,12 +11846,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>p02708.java</t>
+          <t>p03039.java</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11871,12 +11871,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>p02778.java</t>
+          <t>p02625.java</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11896,12 +11896,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>p03146.java</t>
+          <t>p03377.java</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11921,12 +11921,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>p01998.java</t>
+          <t>p03605.java</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11946,12 +11946,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>p03779.java</t>
+          <t>p01939.java</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11971,12 +11971,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>p01601.java</t>
+          <t>p02946.java</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -11996,12 +11996,12 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>p02124.java</t>
+          <t>p03269.java</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12021,12 +12021,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>p03337.java</t>
+          <t>p03327.java</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12046,12 +12046,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>p02633.java</t>
+          <t>p03779.java</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12071,12 +12071,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>p03544.java</t>
+          <t>p00301.java</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12096,12 +12096,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>p02340.java</t>
+          <t>p02782.java</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12121,12 +12121,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>p02333.java</t>
+          <t>p03307.java</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12146,12 +12146,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>p02170.java</t>
+          <t>p02251.java</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12171,12 +12171,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>p02702.java</t>
+          <t>p03485.java</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12196,12 +12196,12 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>p02634.java</t>
+          <t>p02702.java</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12221,12 +12221,12 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>p03826.java</t>
+          <t>p02753.java</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12246,12 +12246,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>p01939.java</t>
+          <t>p03398.java</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12271,12 +12271,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>p02952.java</t>
+          <t>p02633.java</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12296,12 +12296,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>p03797.java</t>
+          <t>p03437.java</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12321,12 +12321,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>p02054.java</t>
+          <t>p00389.java</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12346,12 +12346,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>p02339.java</t>
+          <t>p02389.java</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12371,12 +12371,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>p03320.java</t>
+          <t>p02124.java</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12396,12 +12396,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>p02699.java</t>
+          <t>p01636.java</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12421,12 +12421,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>p03086.java</t>
+          <t>p03723.java</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12446,12 +12446,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>p03815.java</t>
+          <t>p03999.java</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12471,12 +12471,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>p00939.java</t>
+          <t>p02336.java</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12496,12 +12496,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>p02789.java</t>
+          <t>p02337.java</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12521,12 +12521,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>p03377.java</t>
+          <t>p01634.java</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12546,12 +12546,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>p00387.java</t>
+          <t>p03815.java</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12571,12 +12571,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>p02885.java</t>
+          <t>p01687.java</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>p03777.java</t>
+          <t>p03477.java</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12621,12 +12621,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>p03219.java</t>
+          <t>p02476.java</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12646,12 +12646,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>p00020.java</t>
+          <t>p02663.java</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12671,12 +12671,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>p02612.java</t>
+          <t>p03154.java</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12696,12 +12696,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>p02990.java</t>
+          <t>p03863.java</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12721,12 +12721,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>p02927.java</t>
+          <t>p02430.java</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12746,12 +12746,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>p03281.java</t>
+          <t>p03820.java</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12771,12 +12771,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>p00290.java</t>
+          <t>p02910.java</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12796,12 +12796,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>p04012.java</t>
+          <t>p03773.java</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12821,12 +12821,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>p02843.java</t>
+          <t>p00387.java</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12846,12 +12846,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>p03502.java</t>
+          <t>p03729.java</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12871,12 +12871,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>p01989.java</t>
+          <t>p03963.java</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12896,12 +12896,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>p02753.java</t>
+          <t>p03970.java</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12921,12 +12921,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>p03373.java</t>
+          <t>p03892.java</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12946,12 +12946,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>p03134.java</t>
+          <t>p00575.java</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12971,12 +12971,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>p03601.java</t>
+          <t>p03288.java</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -12996,12 +12996,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>p00341.java</t>
+          <t>p02273.java</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13021,12 +13021,12 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>p03327.java</t>
+          <t>p00291.java</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13046,12 +13046,12 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>p03393.java</t>
+          <t>p01829.java</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13071,12 +13071,12 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>p03243.java</t>
+          <t>p03200.java</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13096,12 +13096,12 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>p03009.java</t>
+          <t>p03289.java</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13121,12 +13121,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>p03591.java</t>
+          <t>p04026.java</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13146,12 +13146,12 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>p03407.java</t>
+          <t>p03267.java</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13171,12 +13171,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>p02474.java</t>
+          <t>p02475.java</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13196,12 +13196,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>p03212.java</t>
+          <t>p03796.java</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13221,12 +13221,12 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>p03420.java</t>
+          <t>p02645.java</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13246,12 +13246,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>p03389.java</t>
+          <t>p02331.java</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13271,12 +13271,12 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>p02945.java</t>
+          <t>p03643.java</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13296,12 +13296,12 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>p03109.java</t>
+          <t>p00378.java</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13321,12 +13321,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>p02341.java</t>
+          <t>p02169.java</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13346,12 +13346,12 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>p02546.java</t>
+          <t>p03631.java</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13371,12 +13371,12 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>p04046.java</t>
+          <t>p02741.java</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13396,12 +13396,12 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>p03292.java</t>
+          <t>p03567.java</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13421,12 +13421,12 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>p03329.java</t>
+          <t>p02682.java</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13446,12 +13446,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>p03493.java</t>
+          <t>p03264.java</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13471,12 +13471,12 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>p02596.java</t>
+          <t>p03365.java</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>p02880.java</t>
+          <t>p02333.java</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13521,12 +13521,12 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>p03265.java</t>
+          <t>p03427.java</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13546,12 +13546,12 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>p04019.java</t>
+          <t>p03420.java</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13571,12 +13571,12 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>p03577.java</t>
+          <t>p02634.java</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13596,12 +13596,12 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>p03079.java</t>
+          <t>p03852.java</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13621,12 +13621,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>p02687.java</t>
+          <t>p03781.java</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13646,12 +13646,12 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>p03892.java</t>
+          <t>p03577.java</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13671,12 +13671,12 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>p04001.java</t>
+          <t>p03481.java</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13696,12 +13696,12 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>p03288.java</t>
+          <t>p02853.java</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13721,12 +13721,12 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>p03583.java</t>
+          <t>p03230.java</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13746,12 +13746,12 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>p00376.java</t>
+          <t>p02138.java</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13771,12 +13771,12 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>p02024.java</t>
+          <t>p03636.java</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>p03105.java</t>
+          <t>p00957.java</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13821,12 +13821,12 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>p02660.java</t>
+          <t>p03224.java</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13846,12 +13846,12 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>p03036.java</t>
+          <t>p01905.java</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13871,12 +13871,12 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>p03029.java</t>
+          <t>p03644.java</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13896,12 +13896,12 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>p02715.java</t>
+          <t>p02335.java</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13921,12 +13921,12 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>p02922.java</t>
+          <t>p02859.java</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13946,12 +13946,12 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>p01048.java</t>
+          <t>p03478.java</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13971,12 +13971,12 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>p02983.java</t>
+          <t>p02340.java</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -13996,12 +13996,12 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>p02786.java</t>
+          <t>p00494.java</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14021,12 +14021,12 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>p04029.java</t>
+          <t>p02612.java</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14046,12 +14046,12 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>p03150.java</t>
+          <t>p03935.java</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14071,12 +14071,12 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>p03083.java</t>
+          <t>p03861.java</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14096,12 +14096,12 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>p03719.java</t>
+          <t>p02675.java</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14121,12 +14121,12 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>p01853.java</t>
+          <t>p02801.java</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14146,12 +14146,12 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>p02017.java</t>
+          <t>p00331.java</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14171,12 +14171,12 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>p01486.java</t>
+          <t>p03280.java</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14196,12 +14196,12 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>p03813.java</t>
+          <t>p00375.java</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14221,12 +14221,12 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>p03730.java</t>
+          <t>p02016.java</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14246,12 +14246,12 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>p03573.java</t>
+          <t>p03107.java</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14271,12 +14271,12 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>p01725.java</t>
+          <t>p02951.java</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14296,12 +14296,12 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>p01491.java</t>
+          <t>p02198.java</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14321,12 +14321,12 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>p03962.java</t>
+          <t>p03482.java</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14346,12 +14346,12 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>p02682.java</t>
+          <t>p03257.java</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14371,12 +14371,12 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>p02475.java</t>
+          <t>p02570.java</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14396,12 +14396,12 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>p02063.java</t>
+          <t>p02789.java</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14421,12 +14421,12 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>p03796.java</t>
+          <t>p00379.java</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14446,12 +14446,12 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>p03145.java</t>
+          <t>p03285.java</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14471,12 +14471,12 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>p03799.java</t>
+          <t>p02552.java</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14496,12 +14496,12 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>p02390.java</t>
+          <t>p02766.java</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14521,12 +14521,12 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>p00029.java</t>
+          <t>p02835.java</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14546,12 +14546,12 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>p03742.java</t>
+          <t>p02768.java</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14571,12 +14571,12 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>p03107.java</t>
+          <t>p02825.java</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14596,12 +14596,12 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>p00252.java</t>
+          <t>p02775.java</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14621,12 +14621,12 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>p03250.java</t>
+          <t>p02717.java</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14646,12 +14646,12 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>p03910.java</t>
+          <t>p03079.java</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14671,12 +14671,12 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>p02847.java</t>
+          <t>p03129.java</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14696,12 +14696,12 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>p00019.java</t>
+          <t>p03243.java</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14721,12 +14721,12 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>p03740.java</t>
+          <t>p03929.java</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14746,12 +14746,12 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>p00333.java</t>
+          <t>p02730.java</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14771,12 +14771,12 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>p03477.java</t>
+          <t>p03830.java</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14796,12 +14796,12 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>p03556.java</t>
+          <t>p03071.java</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14821,12 +14821,12 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>p03242.java</t>
+          <t>p03769.java</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14846,12 +14846,12 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>p03042.java</t>
+          <t>p03402.java</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14871,12 +14871,12 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>p03050.java</t>
+          <t>p03018.java</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14896,12 +14896,12 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>p02951.java</t>
+          <t>p02930.java</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14921,12 +14921,12 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>p02663.java</t>
+          <t>p01356.java</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14946,12 +14946,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>p02713.java</t>
+          <t>p03587.java</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14971,12 +14971,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>p03454.java</t>
+          <t>p02997.java</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>p02600.java</t>
+          <t>p03404.java</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15021,12 +15021,12 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>p03854.java</t>
+          <t>p00006.java</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15046,12 +15046,12 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>p03558.java</t>
+          <t>p03594.java</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15071,12 +15071,12 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>p02999.java</t>
+          <t>p02747.java</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15096,12 +15096,12 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>p03773.java</t>
+          <t>p02212.java</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15121,12 +15121,12 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>p02743.java</t>
+          <t>p03947.java</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15146,12 +15146,12 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>p00401.java</t>
+          <t>p02983.java</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15171,12 +15171,12 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>p04005.java</t>
+          <t>p03329.java</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15196,12 +15196,12 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>p03369.java</t>
+          <t>p02450.java</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15221,12 +15221,12 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>p03840.java</t>
+          <t>p03025.java</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15246,12 +15246,12 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>p03315.java</t>
+          <t>p01751.java</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15271,12 +15271,12 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>p03561.java</t>
+          <t>p03986.java</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15296,12 +15296,12 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>p02792.java</t>
+          <t>p01593.java</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15321,12 +15321,12 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>p02823.java</t>
+          <t>p03423.java</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15346,12 +15346,12 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>p02472.java</t>
+          <t>p04032.java</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15371,12 +15371,12 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>p03302.java</t>
+          <t>p02472.java</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15396,12 +15396,12 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>p02336.java</t>
+          <t>p03573.java</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15421,12 +15421,12 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>p02424.java</t>
+          <t>p03529.java</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15446,12 +15446,12 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>p03551.java</t>
+          <t>p03469.java</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15471,12 +15471,12 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>p02577.java</t>
+          <t>p02640.java</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15496,12 +15496,12 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>p00388.java</t>
+          <t>p02635.java</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15521,12 +15521,12 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>p02570.java</t>
+          <t>p03429.java</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15546,12 +15546,12 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>p02879.java</t>
+          <t>p00514.java</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15571,12 +15571,12 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>p03838.java</t>
+          <t>p03351.java</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15596,12 +15596,12 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>p03835.java</t>
+          <t>p03479.java</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15621,12 +15621,12 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>p03186.java</t>
+          <t>p03943.java</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15646,12 +15646,12 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>p00322.java</t>
+          <t>p03570.java</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15671,12 +15671,12 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>p03529.java</t>
+          <t>p03316.java</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15696,12 +15696,12 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>p03635.java</t>
+          <t>p02388.java</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15721,12 +15721,12 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>p03194.java</t>
+          <t>p02722.java</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15746,12 +15746,12 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>p02393.java</t>
+          <t>p03920.java</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15771,12 +15771,12 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>p02125.java</t>
+          <t>p02719.java</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15796,12 +15796,12 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>p03713.java</t>
+          <t>p01809.java</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15821,12 +15821,12 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>p03769.java</t>
+          <t>p03085.java</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15846,12 +15846,12 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>p00084.java</t>
+          <t>p03502.java</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15871,12 +15871,12 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>p01821.java</t>
+          <t>p02729.java</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15896,12 +15896,12 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>p00389.java</t>
+          <t>p03375.java</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>p03209.java</t>
+          <t>p02840.java</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15946,12 +15946,12 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>p01634.java</t>
+          <t>p03742.java</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15971,12 +15971,12 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>p01751.java</t>
+          <t>p03352.java</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -15996,12 +15996,12 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>p02394.java</t>
+          <t>p03713.java</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16021,12 +16021,12 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>p01050.java</t>
+          <t>p02875.java</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16046,12 +16046,12 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>p03897.java</t>
+          <t>p02608.java</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16071,12 +16071,12 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>p02717.java</t>
+          <t>p03011.java</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16096,12 +16096,12 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>p03419.java</t>
+          <t>p02380.java</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16121,12 +16121,12 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>p02724.java</t>
+          <t>p02705.java</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16146,12 +16146,12 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>p03795.java</t>
+          <t>p02341.java</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16171,12 +16171,12 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>p00435.java</t>
+          <t>p03992.java</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>p01356.java</t>
+          <t>p03369.java</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16221,12 +16221,12 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>p03856.java</t>
+          <t>p03001.java</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16246,12 +16246,12 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>p03417.java</t>
+          <t>p04019.java</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16271,12 +16271,12 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>p00514.java</t>
+          <t>p03583.java</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16296,12 +16296,12 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>p02389.java</t>
+          <t>p02141.java</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16321,12 +16321,12 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>p02915.java</t>
+          <t>p03090.java</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16346,12 +16346,12 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>p03545.java</t>
+          <t>p02379.java</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16371,12 +16371,12 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>p02759.java</t>
+          <t>p03281.java</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16396,12 +16396,12 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>p01905.java</t>
+          <t>p02957.java</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16421,12 +16421,12 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>p02627.java</t>
+          <t>p01997.java</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16446,12 +16446,12 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>p03599.java</t>
+          <t>p02696.java</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16471,12 +16471,12 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>p02741.java</t>
+          <t>p00111.java</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16496,12 +16496,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>p03047.java</t>
+          <t>p02869.java</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16521,12 +16521,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>p02980.java</t>
+          <t>p02990.java</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16546,12 +16546,12 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>p01489.java</t>
+          <t>p03534.java</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16571,12 +16571,12 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>p01473.java</t>
+          <t>p02994.java</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16596,12 +16596,12 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>p03211.java</t>
+          <t>p02881.java</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16621,12 +16621,12 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>p02726.java</t>
+          <t>p00353.java</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16646,12 +16646,12 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>p02957.java</t>
+          <t>p03059.java</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16671,12 +16671,12 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>p02473.java</t>
+          <t>p01048.java</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16696,12 +16696,12 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>p03861.java</t>
+          <t>p03228.java</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16721,12 +16721,12 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>p02675.java</t>
+          <t>p02878.java</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16746,12 +16746,12 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>p02640.java</t>
+          <t>p02924.java</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16771,12 +16771,12 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>p02645.java</t>
+          <t>p00354.java</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16796,12 +16796,12 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>p02140.java</t>
+          <t>p03421.java</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16821,12 +16821,12 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>p03011.java</t>
+          <t>p03687.java</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16846,12 +16846,12 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>p02471.java</t>
+          <t>p03209.java</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16871,12 +16871,12 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>p02335.java</t>
+          <t>p04033.java</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16896,12 +16896,12 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>p00353.java</t>
+          <t>p01853.java</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>
@@ -16921,12 +16921,12 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>p03463.java</t>
+          <t>p03213.java</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Infinite Loop</t>
         </is>
       </c>
     </row>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>p02137.java</t>
+          <t>p03813.java</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -16971,7 +16971,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>p02981.java</t>
+          <t>p02627.java</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -16996,7 +16996,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>p03387.java</t>
+          <t>p02577.java</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -17021,7 +17021,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>p02019.java</t>
+          <t>p01479.java</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>p02755.java</t>
+          <t>p03302.java</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>p02909.java</t>
+          <t>p00029.java</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>p02657.java</t>
+          <t>p02817.java</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>p02869.java</t>
+          <t>p03803.java</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -17146,7 +17146,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>p03723.java</t>
+          <t>p02700.java</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>p03887.java</t>
+          <t>p00020.java</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -17196,7 +17196,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>p00375.java</t>
+          <t>p02394.java</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -17221,7 +17221,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>p03196.java</t>
+          <t>p02687.java</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>p03188.java</t>
+          <t>p02111.java</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
@@ -17271,7 +17271,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>p00356.java</t>
+          <t>p02771.java</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -17296,7 +17296,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>p02427.java</t>
+          <t>p02987.java</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -17321,7 +17321,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>p03814.java</t>
+          <t>p02162.java</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -17346,7 +17346,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>p03671.java</t>
+          <t>p03456.java</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -17371,7 +17371,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>p02388.java</t>
+          <t>p03711.java</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>p03067.java</t>
+          <t>p03455.java</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -17421,7 +17421,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>p03423.java</t>
+          <t>p03238.java</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -17446,7 +17446,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>p02729.java</t>
+          <t>p03730.java</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>p03289.java</t>
+          <t>p03227.java</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -17496,7 +17496,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>p03427.java</t>
+          <t>p02332.java</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>p02865.java</t>
+          <t>p02743.java</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -17546,7 +17546,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>p01425.java</t>
+          <t>p02778.java</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
